--- a/План развития клиники.xlsx
+++ b/План развития клиники.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Для_клиники" sheetId="4" r:id="rId1"/>
+    <sheet name="Планы_на_будущее" sheetId="3" r:id="rId2"/>
+    <sheet name="Ссылки полезняшек" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,24 +21,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+  <si>
+    <t>ЧТО</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Ссылка</t>
+  </si>
+  <si>
+    <t>Пульс -оксиметр</t>
+  </si>
+  <si>
+    <t>Рентген аппарат</t>
+  </si>
+  <si>
+    <t>Рентген дачтик для цыфры</t>
+  </si>
+  <si>
+    <t>398 000 грн</t>
+  </si>
+  <si>
+    <t>https://prom.ua/p964774108-rentgenivska-panel-detektor.html</t>
+  </si>
   <si>
     <t>№ п\п</t>
   </si>
   <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Ссылки</t>
-  </si>
-  <si>
-    <t>Дата реализации</t>
-  </si>
-  <si>
-    <t>Инфузомат</t>
+    <t>Что</t>
+  </si>
+  <si>
+    <t>Когда</t>
+  </si>
+  <si>
+    <t>Сколько стоит</t>
+  </si>
+  <si>
+    <t>Что надо</t>
+  </si>
+  <si>
+    <t>Где искать</t>
+  </si>
+  <si>
+    <t>Рентген цифровой</t>
+  </si>
+  <si>
+    <t>До 21.12.2022</t>
+  </si>
+  <si>
+    <t>Круглосуточная работа</t>
+  </si>
+  <si>
+    <t>До 01.04.2020</t>
+  </si>
+  <si>
+    <t>Асистенты - 2 человека</t>
+  </si>
+  <si>
+    <t>Большее помещение</t>
+  </si>
+  <si>
+    <t>до 01.01.2022</t>
+  </si>
+  <si>
+    <t>круглосуточная работа</t>
+  </si>
+  <si>
+    <t>степлер для дерева</t>
+  </si>
+  <si>
+    <t>рекомендации по уходу и кормлению</t>
+  </si>
+  <si>
+    <t>рекомендации после наркоза</t>
+  </si>
+  <si>
+    <t>Без компьютера и програмного обезпечения</t>
+  </si>
+  <si>
+    <t>6 600 $</t>
+  </si>
+  <si>
+    <t>https://prom.ua/p955440360-rentgen-veterinarnij-portativnij.html</t>
+  </si>
+  <si>
+    <t>6 996 грн</t>
+  </si>
+  <si>
+    <t>https://vetpreparaty.com/pulsoksimetr-veterinarniy-ut100v/</t>
+  </si>
+  <si>
+    <t>ветеринарный</t>
+  </si>
+  <si>
+    <t>4 900 грн</t>
+  </si>
+  <si>
+    <t>https://prom.ua/p1009132061-veterinarnij-pulsoksimetr-ut100v.html</t>
+  </si>
+  <si>
+    <t>470 000 грн</t>
+  </si>
+  <si>
+    <t>С компом и програмамы</t>
+  </si>
+  <si>
+    <t>https://prom.ua/p955279075-rentgenivska-panel-detektor.html</t>
   </si>
 </sst>
 </file>
@@ -44,9 +139,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0&quot;  &quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +149,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -86,37 +233,367 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,100 +871,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>875000</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9">
+        <v>9000</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10">
         <v>12000</v>
       </c>
-      <c r="D3" s="8">
-        <v>43862</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="22">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <pageMargins left="0.14842519685039407" right="0.18897637795275601" top="0.31220472440944907" bottom="9.5669291338582735E-2" header="0.31220472440944907" footer="9.5669291338582735E-2"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="33.75" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="23"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="23"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D12" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>